--- a/analise_curva_abc/local/datasets/local_apanha_cx.xlsx
+++ b/analise_curva_abc/local/datasets/local_apanha_cx.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\projetos\projeto_curva_abc\tratamento_curva_abc\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\projetos\projeto_curva_abc\analise_curva_abc\local\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF140FD-60EF-4F94-B1ED-BCE417BA9D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC98359-6788-4A48-8F26-40673599CD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{18EFAD8D-C71D-455A-9E0F-2475F39BFCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$484</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="496">
   <si>
     <t>local</t>
   </si>
@@ -1510,6 +1513,9 @@
   </si>
   <si>
     <t>pallet</t>
+  </si>
+  <si>
+    <t>prateleira</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1899,7 @@
   <dimension ref="A1:B484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A484" sqref="A484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4306,7 @@
         <v>11</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4322,7 @@
         <v>25</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4330,7 @@
         <v>32</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4338,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4346,7 @@
         <v>46</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4354,7 @@
         <v>53</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4362,7 @@
         <v>60</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4370,7 @@
         <v>67</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4378,7 @@
         <v>74</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4386,7 @@
         <v>81</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4394,7 @@
         <v>89</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4402,7 @@
         <v>97</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4410,7 @@
         <v>97</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4418,7 @@
         <v>111</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4426,7 @@
         <v>118</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4434,7 @@
         <v>125</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4442,7 @@
         <v>132</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4450,7 @@
         <v>139</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4458,7 @@
         <v>146</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4466,7 @@
         <v>153</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4474,7 @@
         <v>160</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4482,7 @@
         <v>167</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4490,7 @@
         <v>174</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4498,7 @@
         <v>179</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4506,7 @@
         <v>184</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4514,7 @@
         <v>189</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4522,7 @@
         <v>194</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4530,7 @@
         <v>199</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4538,7 @@
         <v>204</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4546,7 @@
         <v>209</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4554,7 @@
         <v>214</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,7 +4562,7 @@
         <v>219</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4570,7 @@
         <v>224</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4578,7 @@
         <v>229</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4906,7 @@
         <v>86</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4914,7 @@
         <v>94</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4922,7 @@
         <v>102</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4930,7 @@
         <v>108</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4938,7 @@
         <v>115</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4946,7 @@
         <v>122</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4954,7 @@
         <v>129</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4962,7 @@
         <v>136</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,7 +4970,7 @@
         <v>143</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4978,7 @@
         <v>150</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5784,6 +5790,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B484" xr:uid="{E3722E28-546D-45F9-BF38-B4D5FA1D8738}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/analise_curva_abc/local/datasets/local_apanha_cx.xlsx
+++ b/analise_curva_abc/local/datasets/local_apanha_cx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\projetos\projeto_curva_abc\analise_curva_abc\local\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC98359-6788-4A48-8F26-40673599CD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62563889-610E-48F9-917B-CDA4FE3D6C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{18EFAD8D-C71D-455A-9E0F-2475F39BFCF9}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$484</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$482</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="495">
   <si>
     <t>local</t>
   </si>
@@ -1272,9 +1272,6 @@
     <t>018-008-01-02</t>
   </si>
   <si>
-    <t>outros</t>
-  </si>
-  <si>
     <t>018-016-01-01</t>
   </si>
   <si>
@@ -1296,9 +1293,6 @@
     <t>018-028-01-01</t>
   </si>
   <si>
-    <t>018-030-01-01</t>
-  </si>
-  <si>
     <t>018-032-01-01</t>
   </si>
   <si>
@@ -1311,9 +1305,6 @@
     <t>018-038-01-01</t>
   </si>
   <si>
-    <t>018-040-01-01</t>
-  </si>
-  <si>
     <t>018-016-00-01</t>
   </si>
   <si>
@@ -1516,6 +1507,12 @@
   </si>
   <si>
     <t>prateleira</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>amostra</t>
   </si>
 </sst>
 </file>
@@ -1896,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3722E28-546D-45F9-BF38-B4D5FA1D8738}">
-  <dimension ref="A1:B484"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A484" sqref="A484"/>
+      <selection activeCell="B481" sqref="B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1954,7 +1951,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +1959,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,7 +1967,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,7 +1975,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,7 +1983,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +1991,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,7 +1999,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2010,7 +2007,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,7 +2015,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2026,7 +2023,7 @@
         <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,7 +2031,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,7 +2039,7 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2047,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2058,7 +2055,7 @@
         <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,7 +2063,7 @@
         <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2074,7 +2071,7 @@
         <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,7 +2079,7 @@
         <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2090,7 +2087,7 @@
         <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2098,7 +2095,7 @@
         <v>155</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2103,7 @@
         <v>162</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,199 +2111,199 @@
         <v>169</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2314,7 +2311,7 @@
         <v>234</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2322,7 +2319,7 @@
         <v>239</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2330,7 +2327,7 @@
         <v>244</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2338,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,7 +2343,7 @@
         <v>253</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2351,7 @@
         <v>257</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2362,7 +2359,7 @@
         <v>261</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,7 +2367,7 @@
         <v>265</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2375,7 @@
         <v>269</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2383,7 @@
         <v>273</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2391,7 @@
         <v>277</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2399,7 @@
         <v>281</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2407,7 @@
         <v>284</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2415,7 @@
         <v>287</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2423,7 @@
         <v>290</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2431,7 @@
         <v>293</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2439,7 @@
         <v>296</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2447,7 @@
         <v>299</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2455,7 @@
         <v>302</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2463,7 @@
         <v>305</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2471,7 @@
         <v>308</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2479,7 @@
         <v>311</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,7 +2487,7 @@
         <v>313</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2495,7 @@
         <v>315</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2503,7 @@
         <v>317</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2511,7 @@
         <v>319</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2519,7 @@
         <v>321</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2527,7 @@
         <v>323</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2538,7 +2535,7 @@
         <v>325</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2546,7 +2543,7 @@
         <v>327</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,7 +2551,7 @@
         <v>329</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2562,7 +2559,7 @@
         <v>331</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2567,7 @@
         <v>333</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2578,7 +2575,7 @@
         <v>335</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,7 +2583,7 @@
         <v>337</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2594,7 +2591,7 @@
         <v>339</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,7 +2599,7 @@
         <v>341</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2610,7 +2607,7 @@
         <v>343</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2618,7 +2615,7 @@
         <v>345</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2626,7 +2623,7 @@
         <v>347</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2634,7 +2631,7 @@
         <v>349</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2642,7 +2639,7 @@
         <v>351</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2650,7 +2647,7 @@
         <v>353</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2658,7 +2655,7 @@
         <v>355</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2666,7 +2663,7 @@
         <v>357</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2674,7 +2671,7 @@
         <v>359</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +2679,7 @@
         <v>361</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2687,7 @@
         <v>363</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2695,7 @@
         <v>365</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2703,7 @@
         <v>367</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2711,7 @@
         <v>369</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2719,7 @@
         <v>371</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2727,7 @@
         <v>373</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2735,7 @@
         <v>375</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2743,7 @@
         <v>376</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,7 +2751,7 @@
         <v>377</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2759,7 @@
         <v>378</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2767,7 @@
         <v>379</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2775,7 @@
         <v>380</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2783,7 @@
         <v>381</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2791,7 @@
         <v>382</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,103 +2799,103 @@
         <v>383</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +2903,7 @@
         <v>85</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2914,7 +2911,7 @@
         <v>93</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +2919,7 @@
         <v>101</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +2927,7 @@
         <v>107</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2935,7 @@
         <v>114</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,7 +2943,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2954,7 +2951,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2959,7 @@
         <v>135</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +2967,7 @@
         <v>142</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +2975,7 @@
         <v>149</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +2983,7 @@
         <v>156</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +2991,7 @@
         <v>163</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +2999,7 @@
         <v>170</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3007,7 @@
         <v>175</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +3015,7 @@
         <v>180</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3023,7 @@
         <v>185</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +3031,7 @@
         <v>190</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3039,7 @@
         <v>195</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3047,7 @@
         <v>200</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,7 +3055,7 @@
         <v>205</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3063,7 @@
         <v>210</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3071,7 @@
         <v>215</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3079,7 @@
         <v>220</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3087,7 @@
         <v>225</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3095,7 @@
         <v>230</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3103,7 @@
         <v>235</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3114,7 +3111,7 @@
         <v>240</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,7 +3119,7 @@
         <v>245</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3130,7 +3127,7 @@
         <v>250</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,7 +3135,7 @@
         <v>254</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,7 +3143,7 @@
         <v>258</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3154,7 +3151,7 @@
         <v>262</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3162,7 +3159,7 @@
         <v>266</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3170,7 +3167,7 @@
         <v>270</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3178,7 +3175,7 @@
         <v>274</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3183,7 @@
         <v>278</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,7 +3191,7 @@
         <v>282</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>285</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3207,7 @@
         <v>288</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3215,7 @@
         <v>291</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3226,7 +3223,7 @@
         <v>294</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,7 +3231,7 @@
         <v>297</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3242,7 +3239,7 @@
         <v>300</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3247,7 @@
         <v>303</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3255,7 @@
         <v>306</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3263,7 @@
         <v>309</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,7 +3271,7 @@
         <v>312</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3282,7 +3279,7 @@
         <v>314</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3290,7 +3287,7 @@
         <v>316</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,7 +3295,7 @@
         <v>318</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3303,7 @@
         <v>320</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3311,7 @@
         <v>322</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3319,7 @@
         <v>324</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3327,7 @@
         <v>326</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3338,7 +3335,7 @@
         <v>328</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3346,7 +3343,7 @@
         <v>330</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3351,7 @@
         <v>332</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,7 +3359,7 @@
         <v>334</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3367,7 @@
         <v>336</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3375,7 @@
         <v>338</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3386,7 +3383,7 @@
         <v>340</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3391,7 @@
         <v>342</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3399,7 @@
         <v>344</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3407,7 @@
         <v>346</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,7 +3415,7 @@
         <v>348</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3423,7 @@
         <v>350</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3431,7 @@
         <v>352</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3439,7 @@
         <v>354</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,7 +3447,7 @@
         <v>356</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3458,7 +3455,7 @@
         <v>358</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3463,7 @@
         <v>360</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,7 +3471,7 @@
         <v>362</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3482,7 +3479,7 @@
         <v>364</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3490,7 +3487,7 @@
         <v>366</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3495,7 @@
         <v>368</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3503,7 @@
         <v>370</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +3511,7 @@
         <v>372</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3522,7 +3519,7 @@
         <v>374</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3530,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,7 +3535,7 @@
         <v>8</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,7 +3551,7 @@
         <v>22</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,7 +3559,7 @@
         <v>29</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3570,7 +3567,7 @@
         <v>36</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3578,7 +3575,7 @@
         <v>43</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3583,7 @@
         <v>50</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,7 +3591,7 @@
         <v>57</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3602,7 +3599,7 @@
         <v>64</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,7 +3607,7 @@
         <v>71</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3615,7 @@
         <v>78</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3626,7 +3623,7 @@
         <v>157</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3631,7 @@
         <v>164</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3639,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3650,7 +3647,7 @@
         <v>176</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +3655,7 @@
         <v>181</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,7 +3663,7 @@
         <v>186</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3671,7 @@
         <v>191</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>196</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3690,7 +3687,7 @@
         <v>201</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,7 +3695,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3706,7 +3703,7 @@
         <v>211</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +3711,7 @@
         <v>216</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3722,7 +3719,7 @@
         <v>221</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3730,7 +3727,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3738,7 +3735,7 @@
         <v>231</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3746,7 +3743,7 @@
         <v>236</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3754,7 +3751,7 @@
         <v>241</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +3759,7 @@
         <v>246</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3770,7 +3767,7 @@
         <v>251</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3778,7 +3775,7 @@
         <v>255</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3783,7 @@
         <v>259</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +3791,7 @@
         <v>263</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,7 +3799,7 @@
         <v>267</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,7 +3807,7 @@
         <v>271</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +3815,7 @@
         <v>275</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,7 +3823,7 @@
         <v>279</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3831,7 @@
         <v>283</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3839,7 @@
         <v>286</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +3847,7 @@
         <v>289</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3858,7 +3855,7 @@
         <v>292</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +3863,7 @@
         <v>295</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +3871,7 @@
         <v>298</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +3879,7 @@
         <v>301</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +3887,7 @@
         <v>304</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,7 +3895,7 @@
         <v>307</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3903,7 @@
         <v>310</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3919,7 @@
         <v>9</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3927,7 @@
         <v>16</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
         <v>23</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3943,7 @@
         <v>30</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3951,7 @@
         <v>37</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +3975,7 @@
         <v>58</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +3991,7 @@
         <v>72</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +3999,7 @@
         <v>79</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4007,7 @@
         <v>87</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4015,7 @@
         <v>95</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4023,7 @@
         <v>103</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4031,7 @@
         <v>109</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4039,7 @@
         <v>116</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4047,7 @@
         <v>123</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4055,7 @@
         <v>130</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4066,7 +4063,7 @@
         <v>137</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4071,7 @@
         <v>144</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4082,7 +4079,7 @@
         <v>151</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,7 +4087,7 @@
         <v>158</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4098,7 +4095,7 @@
         <v>165</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4106,7 +4103,7 @@
         <v>172</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4114,7 +4111,7 @@
         <v>177</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,7 +4119,7 @@
         <v>182</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4130,7 +4127,7 @@
         <v>187</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4138,7 +4135,7 @@
         <v>192</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4146,7 +4143,7 @@
         <v>197</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4154,7 +4151,7 @@
         <v>202</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4162,7 +4159,7 @@
         <v>207</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4170,7 +4167,7 @@
         <v>212</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4178,7 +4175,7 @@
         <v>217</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4186,7 +4183,7 @@
         <v>222</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4194,7 +4191,7 @@
         <v>227</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4202,7 +4199,7 @@
         <v>232</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4210,7 +4207,7 @@
         <v>237</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4218,7 +4215,7 @@
         <v>242</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4226,7 +4223,7 @@
         <v>247</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,7 +4231,7 @@
         <v>252</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4242,7 +4239,7 @@
         <v>256</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4250,7 +4247,7 @@
         <v>260</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4258,7 +4255,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4266,7 +4263,7 @@
         <v>268</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4274,7 +4271,7 @@
         <v>272</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4282,7 +4279,7 @@
         <v>276</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4290,7 +4287,7 @@
         <v>280</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4298,7 +4295,7 @@
         <v>4</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4306,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4314,7 +4311,7 @@
         <v>18</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4322,7 +4319,7 @@
         <v>25</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4330,7 +4327,7 @@
         <v>32</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4338,7 +4335,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4346,7 +4343,7 @@
         <v>46</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4354,7 +4351,7 @@
         <v>53</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4362,7 +4359,7 @@
         <v>60</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4370,7 +4367,7 @@
         <v>67</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4378,7 +4375,7 @@
         <v>74</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4386,7 +4383,7 @@
         <v>81</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4394,7 +4391,7 @@
         <v>89</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4402,7 +4399,7 @@
         <v>97</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4410,7 +4407,7 @@
         <v>97</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4418,7 +4415,7 @@
         <v>111</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4426,7 +4423,7 @@
         <v>118</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4434,7 +4431,7 @@
         <v>125</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4442,7 +4439,7 @@
         <v>132</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4450,7 +4447,7 @@
         <v>139</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4458,7 +4455,7 @@
         <v>146</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4466,7 +4463,7 @@
         <v>153</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4474,7 +4471,7 @@
         <v>160</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4482,7 +4479,7 @@
         <v>167</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4490,7 +4487,7 @@
         <v>174</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4498,7 +4495,7 @@
         <v>179</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4506,7 +4503,7 @@
         <v>184</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4514,7 +4511,7 @@
         <v>189</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4522,7 +4519,7 @@
         <v>194</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4530,7 +4527,7 @@
         <v>199</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4538,7 +4535,7 @@
         <v>204</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4546,7 +4543,7 @@
         <v>209</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4554,7 +4551,7 @@
         <v>214</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4562,7 +4559,7 @@
         <v>219</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4570,7 +4567,7 @@
         <v>224</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4578,7 +4575,7 @@
         <v>229</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4586,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4594,7 +4591,7 @@
         <v>10</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4602,7 +4599,7 @@
         <v>17</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4610,7 +4607,7 @@
         <v>24</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4618,7 +4615,7 @@
         <v>31</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4626,7 +4623,7 @@
         <v>38</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4634,7 +4631,7 @@
         <v>45</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4642,7 +4639,7 @@
         <v>52</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +4647,7 @@
         <v>59</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4658,7 +4655,7 @@
         <v>66</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4666,7 +4663,7 @@
         <v>73</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4674,7 +4671,7 @@
         <v>80</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4682,7 +4679,7 @@
         <v>88</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4690,7 +4687,7 @@
         <v>96</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4698,7 +4695,7 @@
         <v>104</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4706,7 +4703,7 @@
         <v>110</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4714,7 +4711,7 @@
         <v>117</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4722,7 +4719,7 @@
         <v>124</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4730,7 +4727,7 @@
         <v>131</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4738,7 +4735,7 @@
         <v>138</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4746,7 +4743,7 @@
         <v>145</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4754,7 +4751,7 @@
         <v>152</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4762,7 +4759,7 @@
         <v>159</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4770,7 +4767,7 @@
         <v>166</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4778,7 +4775,7 @@
         <v>173</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -4786,7 +4783,7 @@
         <v>178</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4794,7 +4791,7 @@
         <v>183</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4802,7 +4799,7 @@
         <v>188</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4810,7 +4807,7 @@
         <v>193</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -4818,7 +4815,7 @@
         <v>198</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4826,7 +4823,7 @@
         <v>203</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4834,7 +4831,7 @@
         <v>208</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4842,7 +4839,7 @@
         <v>213</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4850,7 +4847,7 @@
         <v>218</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4858,7 +4855,7 @@
         <v>223</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4866,7 +4863,7 @@
         <v>228</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +4871,7 @@
         <v>233</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +4879,7 @@
         <v>238</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4890,7 +4887,7 @@
         <v>243</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4898,7 +4895,7 @@
         <v>248</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4906,7 +4903,7 @@
         <v>86</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4914,7 +4911,7 @@
         <v>94</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4922,7 +4919,7 @@
         <v>102</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4930,7 +4927,7 @@
         <v>108</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4938,7 +4935,7 @@
         <v>115</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4946,7 +4943,7 @@
         <v>122</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4954,7 +4951,7 @@
         <v>129</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4962,7 +4959,7 @@
         <v>136</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4970,7 +4967,7 @@
         <v>143</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4978,7 +4975,7 @@
         <v>150</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4986,7 +4983,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5002,7 +4999,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5010,7 +5007,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5018,7 +5015,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5026,7 +5023,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5034,7 +5031,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5042,7 +5039,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5050,7 +5047,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5058,7 +5055,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5066,7 +5063,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5074,7 +5071,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5082,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5090,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5098,7 +5095,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5106,7 +5103,7 @@
         <v>26</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5114,7 +5111,7 @@
         <v>33</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5122,7 +5119,7 @@
         <v>40</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5130,7 +5127,7 @@
         <v>47</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5138,7 +5135,7 @@
         <v>54</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5146,7 +5143,7 @@
         <v>61</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5154,7 +5151,7 @@
         <v>68</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5162,7 +5159,7 @@
         <v>75</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5170,7 +5167,7 @@
         <v>82</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5178,7 +5175,7 @@
         <v>90</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5186,7 +5183,7 @@
         <v>98</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5194,7 +5191,7 @@
         <v>105</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5202,7 +5199,7 @@
         <v>112</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5210,7 +5207,7 @@
         <v>119</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5218,7 +5215,7 @@
         <v>126</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5226,7 +5223,7 @@
         <v>133</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5234,7 +5231,7 @@
         <v>140</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5242,7 +5239,7 @@
         <v>147</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5250,7 +5247,7 @@
         <v>154</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5258,7 +5255,7 @@
         <v>161</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5266,7 +5263,7 @@
         <v>168</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5274,7 +5271,7 @@
         <v>6</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5282,7 +5279,7 @@
         <v>13</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5290,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5298,7 +5295,7 @@
         <v>27</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5306,7 +5303,7 @@
         <v>34</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5314,7 +5311,7 @@
         <v>41</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -5322,7 +5319,7 @@
         <v>48</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -5330,7 +5327,7 @@
         <v>55</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5338,7 +5335,7 @@
         <v>62</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -5346,7 +5343,7 @@
         <v>69</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5354,7 +5351,7 @@
         <v>76</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5362,7 +5359,7 @@
         <v>83</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -5370,7 +5367,7 @@
         <v>91</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -5378,292 +5375,292 @@
         <v>99</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>397</v>
@@ -5671,7 +5668,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>397</v>
@@ -5679,7 +5676,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>397</v>
@@ -5687,7 +5684,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>397</v>
@@ -5695,7 +5692,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>397</v>
@@ -5703,7 +5700,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>397</v>
@@ -5711,7 +5708,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>397</v>
@@ -5719,7 +5716,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>397</v>
@@ -5727,7 +5724,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>397</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>397</v>
@@ -5743,7 +5740,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>397</v>
@@ -5751,7 +5748,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>397</v>
@@ -5759,7 +5756,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>397</v>
@@ -5767,30 +5764,14 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B484" xr:uid="{E3722E28-546D-45F9-BF38-B4D5FA1D8738}"/>
+  <autoFilter ref="A1:B482" xr:uid="{E3722E28-546D-45F9-BF38-B4D5FA1D8738}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>